--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N2">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O2">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P2">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q2">
-        <v>4589.333627821281</v>
+        <v>8750.387254369132</v>
       </c>
       <c r="R2">
-        <v>41304.00265039153</v>
+        <v>78753.4852893222</v>
       </c>
       <c r="S2">
-        <v>0.005098724870444109</v>
+        <v>0.007003650940669422</v>
       </c>
       <c r="T2">
-        <v>0.005098724870444109</v>
+        <v>0.007003650940669421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.128831</v>
       </c>
       <c r="O3">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P3">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q3">
-        <v>4.032612158949</v>
+        <v>10.74849009695633</v>
       </c>
       <c r="R3">
-        <v>36.293509430541</v>
+        <v>96.73641087260701</v>
       </c>
       <c r="S3">
-        <v>4.480210325752608E-06</v>
+        <v>8.602896145051981E-06</v>
       </c>
       <c r="T3">
-        <v>4.480210325752607E-06</v>
+        <v>8.602896145051979E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N4">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O4">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P4">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q4">
-        <v>822.2306609515859</v>
+        <v>1955.965100469869</v>
       </c>
       <c r="R4">
-        <v>7400.075948564275</v>
+        <v>17603.68590422882</v>
       </c>
       <c r="S4">
-        <v>0.0009134938228985972</v>
+        <v>0.001565518921346298</v>
       </c>
       <c r="T4">
-        <v>0.0009134938228985972</v>
+        <v>0.001565518921346298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N5">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O5">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P5">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q5">
-        <v>243.431025343587</v>
+        <v>495.7848379680366</v>
       </c>
       <c r="R5">
-        <v>2190.879228092283</v>
+        <v>4462.063541712329</v>
       </c>
       <c r="S5">
-        <v>0.0002704505542226821</v>
+        <v>0.0003968171745851282</v>
       </c>
       <c r="T5">
-        <v>0.0002704505542226819</v>
+        <v>0.0003968171745851281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N6">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O6">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P6">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q6">
-        <v>590.503903090416</v>
+        <v>1658.190759235717</v>
       </c>
       <c r="R6">
-        <v>5314.535127813744</v>
+        <v>14923.71683312145</v>
       </c>
       <c r="S6">
-        <v>0.0006560466466262911</v>
+        <v>0.001327185749971457</v>
       </c>
       <c r="T6">
-        <v>0.000656046646626291</v>
+        <v>0.001327185749971456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H7">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N7">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O7">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P7">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q7">
-        <v>710.444745398295</v>
+        <v>13333.5237082785</v>
       </c>
       <c r="R7">
-        <v>6394.002708584655</v>
+        <v>120001.7133745065</v>
       </c>
       <c r="S7">
-        <v>0.0007893002745495064</v>
+        <v>0.01067191007064239</v>
       </c>
       <c r="T7">
-        <v>0.0007893002745495064</v>
+        <v>0.01067191007064239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N8">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O8">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P8">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q8">
-        <v>551775.2601157086</v>
+        <v>394710.6655800283</v>
       </c>
       <c r="R8">
-        <v>4965977.341041378</v>
+        <v>3552395.990220255</v>
       </c>
       <c r="S8">
-        <v>0.6130193334807362</v>
+        <v>0.3159192437913563</v>
       </c>
       <c r="T8">
-        <v>0.6130193334807362</v>
+        <v>0.3159192437913563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.128831</v>
       </c>
       <c r="O9">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P9">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q9">
         <v>484.8406769690843</v>
@@ -1013,10 +1013,10 @@
         <v>4363.56609272176</v>
       </c>
       <c r="S9">
-        <v>0.0005386553731633599</v>
+        <v>0.0003880576670059777</v>
       </c>
       <c r="T9">
-        <v>0.0005386553731633599</v>
+        <v>0.0003880576670059775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N10">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O10">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P10">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q10">
-        <v>98856.73468395309</v>
+        <v>88229.27079853337</v>
       </c>
       <c r="R10">
-        <v>889710.612155578</v>
+        <v>794063.4371868003</v>
       </c>
       <c r="S10">
-        <v>0.1098292982424234</v>
+        <v>0.07061710498746099</v>
       </c>
       <c r="T10">
-        <v>0.1098292982424234</v>
+        <v>0.07061710498746096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N11">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O11">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P11">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q11">
-        <v>29267.6950995514</v>
+        <v>22363.76033313726</v>
       </c>
       <c r="R11">
-        <v>263409.2558959626</v>
+        <v>201273.8429982353</v>
       </c>
       <c r="S11">
-        <v>0.03251625116117385</v>
+        <v>0.01789954736184696</v>
       </c>
       <c r="T11">
-        <v>0.03251625116117384</v>
+        <v>0.01789954736184695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N12">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O12">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P12">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q12">
-        <v>70996.24284271883</v>
+        <v>74797.32715941031</v>
       </c>
       <c r="R12">
-        <v>638966.1855844695</v>
+        <v>673175.9444346929</v>
       </c>
       <c r="S12">
-        <v>0.0788764422999924</v>
+        <v>0.0598664213927216</v>
       </c>
       <c r="T12">
-        <v>0.0788764422999924</v>
+        <v>0.05986642139272158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N13">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O13">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P13">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q13">
-        <v>85416.7218991402</v>
+        <v>601445.8405591019</v>
       </c>
       <c r="R13">
-        <v>768750.4970922619</v>
+        <v>5413012.565031917</v>
       </c>
       <c r="S13">
-        <v>0.09489751663700882</v>
+        <v>0.4813863209185656</v>
       </c>
       <c r="T13">
-        <v>0.09489751663700884</v>
+        <v>0.4813863209185655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N14">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O14">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P14">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q14">
-        <v>417.7046702894371</v>
+        <v>35.24156887841333</v>
       </c>
       <c r="R14">
-        <v>3759.342032604934</v>
+        <v>317.17411990572</v>
       </c>
       <c r="S14">
-        <v>0.0004640676323888186</v>
+        <v>2.820671129757451E-05</v>
       </c>
       <c r="T14">
-        <v>0.0004640676323888185</v>
+        <v>2.82067112975745E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.128831</v>
       </c>
       <c r="O15">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P15">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q15">
-        <v>0.3670338809206666</v>
+        <v>0.043288787465</v>
       </c>
       <c r="R15">
-        <v>3.303304928285999</v>
+        <v>0.389599087185</v>
       </c>
       <c r="S15">
-        <v>4.077726591069926E-07</v>
+        <v>3.464755881498915E-08</v>
       </c>
       <c r="T15">
-        <v>4.077726591069925E-07</v>
+        <v>3.464755881498915E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N16">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O16">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P16">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q16">
-        <v>74.83648280713376</v>
+        <v>7.877511795556668</v>
       </c>
       <c r="R16">
-        <v>673.5283452642039</v>
+        <v>70.89760616001</v>
       </c>
       <c r="S16">
-        <v>8.314292815674876E-05</v>
+        <v>6.305017285896401E-06</v>
       </c>
       <c r="T16">
-        <v>8.314292815674876E-05</v>
+        <v>6.305017285896399E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H17">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I17">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N17">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O17">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P17">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q17">
-        <v>22.15621796657978</v>
+        <v>1.996738545188333</v>
       </c>
       <c r="R17">
-        <v>199.405961699218</v>
+        <v>17.970646906695</v>
       </c>
       <c r="S17">
-        <v>2.461543848029437E-05</v>
+        <v>1.598153245537405E-06</v>
       </c>
       <c r="T17">
-        <v>2.461543848029436E-05</v>
+        <v>1.598153245537404E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H18">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I18">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N18">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O18">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P18">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q18">
-        <v>53.74554524642488</v>
+        <v>6.678246591426667</v>
       </c>
       <c r="R18">
-        <v>483.709907217824</v>
+        <v>60.10421932284</v>
       </c>
       <c r="S18">
-        <v>5.971101045308385E-05</v>
+        <v>5.34514721033793E-06</v>
       </c>
       <c r="T18">
-        <v>5.971101045308384E-05</v>
+        <v>5.345147210337928E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H19">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I19">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N19">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O19">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P19">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q19">
-        <v>64.66213010457</v>
+        <v>53.69982841875168</v>
       </c>
       <c r="R19">
-        <v>581.95917094113</v>
+        <v>483.2984557687651</v>
       </c>
       <c r="S19">
-        <v>7.183927726269519E-05</v>
+        <v>4.29803667981654E-05</v>
       </c>
       <c r="T19">
-        <v>7.183927726269519E-05</v>
+        <v>4.298036679816539E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N20">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O20">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P20">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q20">
-        <v>35577.48091655565</v>
+        <v>13450.27082366835</v>
       </c>
       <c r="R20">
-        <v>320197.3282490009</v>
+        <v>121052.4374130152</v>
       </c>
       <c r="S20">
-        <v>0.03952638912048542</v>
+        <v>0.01076535234019593</v>
       </c>
       <c r="T20">
-        <v>0.03952638912048542</v>
+        <v>0.01076535234019592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.128831</v>
       </c>
       <c r="O21">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P21">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q21">
-        <v>31.26165882975666</v>
+        <v>16.52156625152734</v>
       </c>
       <c r="R21">
-        <v>281.35492946781</v>
+        <v>148.694096263746</v>
       </c>
       <c r="S21">
-        <v>3.473153409469802E-05</v>
+        <v>1.322356138707646E-05</v>
       </c>
       <c r="T21">
-        <v>3.473153409469802E-05</v>
+        <v>1.322356138707645E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H22">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I22">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J22">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N22">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O22">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P22">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q22">
-        <v>6374.10526697737</v>
+        <v>3006.525260905169</v>
       </c>
       <c r="R22">
-        <v>57366.94740279634</v>
+        <v>27058.72734814652</v>
       </c>
       <c r="S22">
-        <v>0.007081596520799277</v>
+        <v>0.00240636818229629</v>
       </c>
       <c r="T22">
-        <v>0.007081596520799277</v>
+        <v>0.002406368182296289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H23">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I23">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J23">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N23">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O23">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P23">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q23">
-        <v>1887.128581403781</v>
+        <v>762.0737399489404</v>
       </c>
       <c r="R23">
-        <v>16984.15723263403</v>
+        <v>6858.663659540463</v>
       </c>
       <c r="S23">
-        <v>0.002096589660293939</v>
+        <v>0.0006099499725555472</v>
       </c>
       <c r="T23">
-        <v>0.002096589660293938</v>
+        <v>0.0006099499725555469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H24">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I24">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J24">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N24">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O24">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P24">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q24">
-        <v>4577.710632322115</v>
+        <v>2548.814599935394</v>
       </c>
       <c r="R24">
-        <v>41199.39569089904</v>
+        <v>22939.33139941855</v>
       </c>
       <c r="S24">
-        <v>0.005085811785228121</v>
+        <v>0.002040024887071866</v>
       </c>
       <c r="T24">
-        <v>0.005085811785228121</v>
+        <v>0.002040024887071865</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H25">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I25">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J25">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N25">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O25">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P25">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q25">
-        <v>5507.517304570949</v>
+        <v>20495.03635631704</v>
       </c>
       <c r="R25">
-        <v>49567.65574113854</v>
+        <v>184455.3272068533</v>
       </c>
       <c r="S25">
-        <v>0.006118821975587858</v>
+        <v>0.01640385465046741</v>
       </c>
       <c r="T25">
-        <v>0.006118821975587859</v>
+        <v>0.0164038546504674</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H26">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N26">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O26">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P26">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q26">
-        <v>190.6772304347929</v>
+        <v>212.5270771351786</v>
       </c>
       <c r="R26">
-        <v>1716.095073913136</v>
+        <v>1912.743694216608</v>
       </c>
       <c r="S26">
-        <v>0.000211841373037598</v>
+        <v>0.0001701028103587433</v>
       </c>
       <c r="T26">
-        <v>0.000211841373037598</v>
+        <v>0.0001701028103587432</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H27">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.128831</v>
       </c>
       <c r="O27">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P27">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q27">
-        <v>0.1675466157493333</v>
+        <v>0.261056467276</v>
       </c>
       <c r="R27">
-        <v>1.507919541744</v>
+        <v>2.349508205484</v>
       </c>
       <c r="S27">
-        <v>1.861433850659976E-07</v>
+        <v>2.0894485231982E-07</v>
       </c>
       <c r="T27">
-        <v>1.861433850659976E-07</v>
+        <v>2.089448523198199E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H28">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N28">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O28">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P28">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q28">
-        <v>34.16196727524622</v>
+        <v>47.50595987322933</v>
       </c>
       <c r="R28">
-        <v>307.4577054772159</v>
+        <v>427.5536388590639</v>
       </c>
       <c r="S28">
-        <v>3.795376111112808E-05</v>
+        <v>3.802290697333645E-05</v>
       </c>
       <c r="T28">
-        <v>3.795376111112808E-05</v>
+        <v>3.802290697333644E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H29">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N29">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O29">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P29">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q29">
-        <v>10.11405085763022</v>
+        <v>12.04149021503867</v>
       </c>
       <c r="R29">
-        <v>91.02645771867198</v>
+        <v>108.373411935348</v>
       </c>
       <c r="S29">
-        <v>1.123665587006306E-05</v>
+        <v>9.637789942326088E-06</v>
       </c>
       <c r="T29">
-        <v>1.123665587006306E-05</v>
+        <v>9.637789942326084E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H30">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N30">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O30">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P30">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q30">
-        <v>24.53420429485511</v>
+        <v>40.27369591179733</v>
       </c>
       <c r="R30">
-        <v>220.807838653696</v>
+        <v>362.463263206176</v>
       </c>
       <c r="S30">
-        <v>2.725736844591108E-05</v>
+        <v>3.223433432801018E-05</v>
       </c>
       <c r="T30">
-        <v>2.725736844591108E-05</v>
+        <v>3.223433432801017E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H31">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N31">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O31">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P31">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q31">
-        <v>29.51749587527999</v>
+        <v>323.8410757441774</v>
       </c>
       <c r="R31">
-        <v>265.6574628775199</v>
+        <v>2914.569681697596</v>
       </c>
       <c r="S31">
-        <v>3.279377847366698E-05</v>
+        <v>0.0002591965119750148</v>
       </c>
       <c r="T31">
-        <v>3.279377847366698E-05</v>
+        <v>0.0002591965119750147</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H32">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N32">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O32">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P32">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q32">
-        <v>962.0913720047924</v>
+        <v>48.80130457829245</v>
       </c>
       <c r="R32">
-        <v>8658.822348043132</v>
+        <v>439.211741204632</v>
       </c>
       <c r="S32">
-        <v>0.001068878317397316</v>
+        <v>3.905967733542261E-05</v>
       </c>
       <c r="T32">
-        <v>0.001068878317397316</v>
+        <v>3.90596773354226E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H33">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.128831</v>
       </c>
       <c r="O33">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P33">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q33">
-        <v>0.8453822884539998</v>
+        <v>0.05994481429566666</v>
       </c>
       <c r="R33">
-        <v>7.608440596085998</v>
+        <v>0.5395033286609999</v>
       </c>
       <c r="S33">
-        <v>9.392151559963293E-07</v>
+        <v>4.797874000610365E-08</v>
       </c>
       <c r="T33">
-        <v>9.392151559963293E-07</v>
+        <v>4.797874000610363E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H34">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N34">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O34">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P34">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q34">
-        <v>172.3694742748226</v>
+        <v>10.90850562812289</v>
       </c>
       <c r="R34">
-        <v>1551.325268473404</v>
+        <v>98.17655065310601</v>
       </c>
       <c r="S34">
-        <v>0.0001915015548363265</v>
+        <v>8.730969668291401E-06</v>
       </c>
       <c r="T34">
-        <v>0.0001915015548363265</v>
+        <v>8.730969668291398E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H35">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N35">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O35">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P35">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q35">
-        <v>51.03200337006865</v>
+        <v>2.765014413607445</v>
       </c>
       <c r="R35">
-        <v>459.2880303306179</v>
+        <v>24.885129722467</v>
       </c>
       <c r="S35">
-        <v>5.669628008610957E-05</v>
+        <v>2.213067289011364E-06</v>
       </c>
       <c r="T35">
-        <v>5.669628008610955E-05</v>
+        <v>2.213067289011364E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H36">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N36">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O36">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P36">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q36">
-        <v>123.7911113836693</v>
+        <v>9.247804690011556</v>
       </c>
       <c r="R36">
-        <v>1114.120002453024</v>
+        <v>83.230242210104</v>
       </c>
       <c r="S36">
-        <v>0.0001375312560685359</v>
+        <v>7.401774816764504E-06</v>
       </c>
       <c r="T36">
-        <v>0.0001375312560685359</v>
+        <v>7.401774816764501E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H37">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N37">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O37">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P37">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q37">
-        <v>148.9350775655699</v>
+        <v>74.3616633954899</v>
       </c>
       <c r="R37">
-        <v>1340.41569809013</v>
+        <v>669.2549705594091</v>
       </c>
       <c r="S37">
-        <v>0.0001654660666772222</v>
+        <v>5.951772403324493E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001654660666772222</v>
+        <v>5.951772403324491E-05</v>
       </c>
     </row>
   </sheetData>
